--- a/ResultadoEleicoesDistritos/VISEU_VOUZELA.xlsx
+++ b/ResultadoEleicoesDistritos/VISEU_VOUZELA.xlsx
@@ -597,64 +597,64 @@
         <v>2648</v>
       </c>
       <c r="H2" t="n">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="I2" t="n">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="J2" t="n">
-        <v>1065</v>
+        <v>1130</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L2" t="n">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="M2" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="N2" t="n">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="n">
         <v>1</v>
       </c>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>3</v>
-      </c>
       <c r="R2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S2" t="n">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="T2" t="n">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="U2" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="V2" t="n">
-        <v>1765</v>
+        <v>1710</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>1698</v>
+        <v>1679</v>
       </c>
       <c r="Y2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z2" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="AA2" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
